--- a/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\RegressionCode\WppTestSuite\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -1943,9 +1943,6 @@
     <t>Invoice NO</t>
   </si>
   <si>
-    <t>1307100075</t>
-  </si>
-  <si>
     <t>1307200432</t>
   </si>
   <si>
@@ -1959,6 +1956,9 @@
   </si>
   <si>
     <t>C:\WppRegression_v12.50\WppRegPack\MPLReports\p_jobbudget-2.pdf</t>
+  </si>
+  <si>
+    <t>1307100092</t>
   </si>
 </sst>
 </file>
@@ -3595,15 +3595,15 @@
         <v>274</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>634</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3" t="s">
         <v>636</v>
-      </c>
-      <c r="B3" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4923,7 +4923,7 @@
         <v>546</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">

--- a/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="639">
   <si>
     <t>Description</t>
   </si>
@@ -1958,7 +1958,10 @@
     <t>C:\WppRegression_v12.50\WppRegPack\MPLReports\p_jobbudget-2.pdf</t>
   </si>
   <si>
-    <t>1307100092</t>
+    <t>1307100097</t>
+  </si>
+  <si>
+    <t>a13071000732</t>
   </si>
 </sst>
 </file>
@@ -4360,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,10 +4420,10 @@
         <v>1307</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>627</v>
-      </c>
-      <c r="D2">
-        <v>13071000732</v>
+        <v>638</v>
+      </c>
+      <c r="D2" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -4538,7 +4541,7 @@
   <dimension ref="A1:FK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -1886,9 +1886,6 @@
     <t>Manual - Local - 1</t>
   </si>
   <si>
-    <t>A1307235H</t>
-  </si>
-  <si>
     <t>131907</t>
   </si>
   <si>
@@ -1962,6 +1959,9 @@
   </si>
   <si>
     <t>a13071000732</t>
+  </si>
+  <si>
+    <t>MA1307235H</t>
   </si>
 </sst>
 </file>
@@ -3598,15 +3598,15 @@
         <v>274</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>633</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -3882,7 +3882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3961,7 +3961,7 @@
         <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4376,43 +4376,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>616</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>617</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>625</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4420,10 +4420,10 @@
         <v>1307</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" t="s">
         <v>635</v>
-      </c>
-      <c r="B3" t="s">
-        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4926,7 @@
         <v>546</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
@@ -4934,23 +4934,23 @@
         <v>533</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>628</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -1958,10 +1958,10 @@
     <t>1307100097</t>
   </si>
   <si>
-    <t>a13071000732</t>
-  </si>
-  <si>
     <t>MA1307235H</t>
+  </si>
+  <si>
+    <t>ab13071000732</t>
   </si>
 </sst>
 </file>
@@ -3882,7 +3882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3961,7 +3961,7 @@
         <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4420,10 +4420,10 @@
         <v>1307</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -1682,9 +1682,6 @@
     <t>131885</t>
   </si>
   <si>
-    <t>1307200397</t>
-  </si>
-  <si>
     <t>PO Number</t>
   </si>
   <si>
@@ -1961,7 +1958,10 @@
     <t>MA1307235H</t>
   </si>
   <si>
-    <t>ab13071000732</t>
+    <t>1307200437</t>
+  </si>
+  <si>
+    <t>ac13071000732</t>
   </si>
 </sst>
 </file>
@@ -3598,15 +3598,15 @@
         <v>274</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>632</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -3639,26 +3639,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" t="s">
         <v>547</v>
-      </c>
-      <c r="B2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,20 +3666,20 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" t="s">
         <v>552</v>
-      </c>
-      <c r="B6" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B7">
         <v>13264644</v>
@@ -3687,63 +3687,63 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B8" t="s">
         <v>555</v>
-      </c>
-      <c r="B8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" t="s">
         <v>559</v>
-      </c>
-      <c r="B10" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11" t="s">
         <v>561</v>
-      </c>
-      <c r="B11" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" t="s">
         <v>563</v>
-      </c>
-      <c r="B12" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" t="s">
         <v>565</v>
-      </c>
-      <c r="B13" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B15">
         <v>1307</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s">
         <v>254</v>
@@ -3767,15 +3767,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18" t="s">
         <v>570</v>
-      </c>
-      <c r="B18" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B19">
         <v>9876589123</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B20" t="s">
         <v>254</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B21" t="s">
         <v>254</v>
@@ -3799,74 +3799,74 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" t="s">
         <v>575</v>
-      </c>
-      <c r="B22" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>576</v>
+      </c>
+      <c r="B23" t="s">
         <v>577</v>
-      </c>
-      <c r="B23" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" t="s">
         <v>579</v>
-      </c>
-      <c r="B24" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" t="s">
         <v>581</v>
-      </c>
-      <c r="B25" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B29" t="s">
         <v>586</v>
-      </c>
-      <c r="B29" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>587</v>
+      </c>
+      <c r="B30" t="s">
         <v>588</v>
-      </c>
-      <c r="B30" t="s">
-        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -3902,23 +3902,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" t="s">
         <v>590</v>
-      </c>
-      <c r="B2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B4">
         <v>623563</v>
@@ -3926,10 +3926,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" t="s">
         <v>593</v>
-      </c>
-      <c r="B5" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,20 +3937,20 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" t="s">
         <v>552</v>
-      </c>
-      <c r="B7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B8">
         <v>13264644</v>
@@ -3958,55 +3958,55 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" t="s">
         <v>557</v>
-      </c>
-      <c r="B10" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B13" t="s">
         <v>563</v>
-      </c>
-      <c r="B13" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B15">
         <v>246546</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B16">
         <v>16516</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B17">
         <v>651656165</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B18">
         <v>3546545</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B19">
         <v>1307</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B21" t="s">
         <v>254</v>
@@ -4062,31 +4062,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" t="s">
         <v>552</v>
-      </c>
-      <c r="B24" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B25">
         <v>646461464</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B26">
         <v>465436161</v>
@@ -4102,39 +4102,39 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>578</v>
+      </c>
+      <c r="B27" t="s">
         <v>579</v>
-      </c>
-      <c r="B27" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B29" t="s">
         <v>577</v>
-      </c>
-      <c r="B29" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B31">
         <v>25</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B32">
         <v>250</v>
@@ -4159,7 +4159,7 @@
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,7 +4306,7 @@
         <v>544</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>545</v>
+        <v>637</v>
       </c>
       <c r="D2" t="s">
         <v>199</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4376,43 +4376,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>615</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>616</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>624</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" t="s">
         <v>634</v>
-      </c>
-      <c r="B3" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4541,7 +4541,7 @@
   <dimension ref="A1:FK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,7 +4752,7 @@
         <v>274</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>545</v>
+        <v>637</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>320</v>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
@@ -4934,23 +4934,23 @@
         <v>533</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>627</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="638">
   <si>
     <t>Description</t>
   </si>
@@ -1952,16 +1952,13 @@
     <t>C:\WppRegression_v12.50\WppRegPack\MPLReports\p_jobbudget-2.pdf</t>
   </si>
   <si>
-    <t>1307100097</t>
-  </si>
-  <si>
     <t>MA1307235H</t>
   </si>
   <si>
     <t>1307200437</t>
   </si>
   <si>
-    <t>ac13071000732</t>
+    <t>1307100107</t>
   </si>
 </sst>
 </file>
@@ -3961,7 +3958,7 @@
         <v>554</v>
       </c>
       <c r="B9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4306,7 +4303,7 @@
         <v>544</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D2" t="s">
         <v>199</v>
@@ -4363,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,10 +4417,10 @@
         <v>1307</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>638</v>
-      </c>
-      <c r="D2" t="s">
-        <v>638</v>
+        <v>637</v>
+      </c>
+      <c r="D2">
+        <v>1307100107</v>
       </c>
     </row>
   </sheetData>
@@ -4540,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,7 +4749,7 @@
         <v>274</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>320</v>
@@ -4926,7 +4923,7 @@
         <v>545</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">

--- a/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegPack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="637">
   <si>
     <t>Description</t>
   </si>
@@ -1922,15 +1922,9 @@
     <t>Purch Order No_10</t>
   </si>
   <si>
-    <t>13071000732</t>
-  </si>
-  <si>
     <t>Invoice Journal NO</t>
   </si>
   <si>
-    <t>1307100228</t>
-  </si>
-  <si>
     <t>Vendor Invoice NO</t>
   </si>
   <si>
@@ -1959,6 +1953,9 @@
   </si>
   <si>
     <t>1307100107</t>
+  </si>
+  <si>
+    <t>1307100305</t>
   </si>
 </sst>
 </file>
@@ -3595,15 +3592,15 @@
         <v>274</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +3955,7 @@
         <v>554</v>
       </c>
       <c r="B9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +4300,7 @@
         <v>544</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D2" t="s">
         <v>199</v>
@@ -4417,7 +4414,7 @@
         <v>1307</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D2">
         <v>1307100107</v>
@@ -4452,7 +4449,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -4484,7 +4481,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -4521,10 +4518,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4746,7 @@
         <v>274</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>320</v>
@@ -4923,7 +4920,7 @@
         <v>545</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
@@ -4936,18 +4933,18 @@
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
